--- a/main.xlsx
+++ b/main.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
   <si>
     <t>Symbol</t>
   </si>
@@ -63,16 +63,37 @@
     <t>true</t>
   </si>
   <si>
-    <t>BTCUSDT</t>
-  </si>
-  <si>
-    <t>RUNEUSDT</t>
+    <t>Qty position round</t>
+  </si>
+  <si>
+    <t>ADAUSDT</t>
+  </si>
+  <si>
+    <t>SOLUSDT</t>
+  </si>
+  <si>
+    <t>LINKUSDT</t>
+  </si>
+  <si>
+    <t>ALICEUSDT</t>
+  </si>
+  <si>
+    <t>ATOMUSDT</t>
+  </si>
+  <si>
+    <t>DOTUSDT</t>
   </si>
   <si>
     <t>GALAUSDT</t>
   </si>
   <si>
-    <t>Qty position round</t>
+    <t>SANDUSDT</t>
+  </si>
+  <si>
+    <t>NEARUSDT</t>
+  </si>
+  <si>
+    <t>VETUSDT</t>
   </si>
 </sst>
 </file>
@@ -390,7 +411,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -398,14 +419,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="21.77734375" customWidth="1"/>
     <col min="5" max="5" width="17.109375" customWidth="1"/>
     <col min="6" max="6" width="18.21875" customWidth="1"/>
@@ -413,7 +435,7 @@
     <col min="8" max="8" width="18" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
     <col min="10" max="10" width="13.88671875" customWidth="1"/>
-    <col min="11" max="11" width="17.109375" customWidth="1"/>
+    <col min="11" max="11" width="21.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -448,7 +470,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -459,92 +481,95 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F2">
+        <v>90</v>
+      </c>
+      <c r="G2">
+        <v>9</v>
+      </c>
+      <c r="H2">
+        <v>10</v>
+      </c>
+      <c r="I2">
+        <v>9.1</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2">
+      <c r="E3">
+        <v>3.7</v>
+      </c>
+      <c r="F3">
         <v>100</v>
       </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3">
-        <v>0.5</v>
-      </c>
-      <c r="F3">
-        <v>50</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>50</v>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
       </c>
       <c r="I3">
-        <v>0.5</v>
-      </c>
-      <c r="J3">
-        <v>0.2</v>
+        <v>3.2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>12</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>5</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G4">
-        <v>1.5</v>
+        <v>6.6</v>
       </c>
       <c r="H4">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>3.6</v>
       </c>
       <c r="J4">
         <v>0.5</v>
@@ -555,36 +580,281 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>5</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F5">
+        <v>50</v>
+      </c>
+      <c r="G5">
+        <v>5.9</v>
+      </c>
+      <c r="H5">
+        <v>50</v>
+      </c>
+      <c r="I5">
+        <v>3.8</v>
+      </c>
+      <c r="J5">
+        <v>0.5</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="E5">
+      <c r="E6">
+        <v>3.5</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6">
+        <v>3.5</v>
+      </c>
+      <c r="J6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6">
         <v>1</v>
       </c>
-      <c r="F5">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>90</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>10</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8">
+        <v>4.2</v>
+      </c>
+      <c r="F8">
         <v>100</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5">
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8">
+        <v>3.2</v>
+      </c>
+      <c r="J8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8">
         <v>1</v>
       </c>
-      <c r="J5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9">
+        <v>4.5</v>
+      </c>
+      <c r="F9">
+        <v>50</v>
+      </c>
+      <c r="G9">
+        <v>7.4</v>
+      </c>
+      <c r="H9">
+        <v>50</v>
+      </c>
+      <c r="I9">
+        <v>2.9</v>
+      </c>
+      <c r="J9">
+        <v>1.4</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F10">
+        <v>100</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10">
+        <v>3.5</v>
+      </c>
+      <c r="J10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>100</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11">
+        <v>3.5</v>
+      </c>
+      <c r="J11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12">
+        <v>4.7</v>
+      </c>
+      <c r="F12">
+        <v>90</v>
+      </c>
+      <c r="G12">
+        <v>6</v>
+      </c>
+      <c r="H12">
+        <v>10</v>
+      </c>
+      <c r="I12">
+        <v>3.5</v>
+      </c>
+      <c r="J12">
+        <v>1.8</v>
+      </c>
+      <c r="K12">
         <v>0</v>
       </c>
     </row>

--- a/main.xlsx
+++ b/main.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evgen\OneDrive\Рабочий стол\Тесты стратегий\черновики\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="30">
   <si>
     <t>Symbol</t>
   </si>
@@ -75,12 +80,6 @@
     <t>LINKUSDT</t>
   </si>
   <si>
-    <t>ALICEUSDT</t>
-  </si>
-  <si>
-    <t>ATOMUSDT</t>
-  </si>
-  <si>
     <t>DOTUSDT</t>
   </si>
   <si>
@@ -90,17 +89,38 @@
     <t>SANDUSDT</t>
   </si>
   <si>
-    <t>NEARUSDT</t>
-  </si>
-  <si>
     <t>VETUSDT</t>
+  </si>
+  <si>
+    <t>FTMUSDT</t>
+  </si>
+  <si>
+    <t>MANAUSDT</t>
+  </si>
+  <si>
+    <t>OMGUSDT</t>
+  </si>
+  <si>
+    <t>SLPUSDT</t>
+  </si>
+  <si>
+    <t>RUNEUSDT</t>
+  </si>
+  <si>
+    <t>BTCUSDT</t>
+  </si>
+  <si>
+    <t>SRMUSDT</t>
+  </si>
+  <si>
+    <t>FILUSDT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,16 +135,29 @@
       <name val="Arial Cyr"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -132,13 +165,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -411,7 +464,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -419,26 +472,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="21.77734375" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" customWidth="1"/>
-    <col min="6" max="6" width="18.21875" customWidth="1"/>
-    <col min="7" max="7" width="15.5546875" customWidth="1"/>
-    <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="13.88671875" customWidth="1"/>
-    <col min="11" max="11" width="21.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -473,392 +527,568 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>3</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F2" s="3">
+        <v>90</v>
+      </c>
+      <c r="G2" s="3">
+        <v>9</v>
+      </c>
+      <c r="H2" s="3">
+        <v>10</v>
+      </c>
+      <c r="I2" s="3">
+        <v>9.1</v>
+      </c>
+      <c r="J2" s="3">
+        <v>2</v>
+      </c>
+      <c r="K2" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F3" s="3">
+        <v>50</v>
+      </c>
+      <c r="G3" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="H3" s="3">
+        <v>50</v>
+      </c>
+      <c r="I3" s="3">
+        <v>4</v>
+      </c>
+      <c r="J3" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F4" s="3">
+        <v>10</v>
+      </c>
+      <c r="G4" s="3">
+        <v>6.6</v>
+      </c>
+      <c r="H4" s="3">
+        <v>90</v>
+      </c>
+      <c r="I4" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>6</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="F5" s="3">
+        <v>100</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3">
+        <v>6</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="F6" s="3">
+        <v>100</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="F7" s="3">
+        <v>50</v>
+      </c>
+      <c r="G7" s="3">
+        <v>7.4</v>
+      </c>
+      <c r="H7" s="3">
+        <v>50</v>
+      </c>
+      <c r="I7" s="3">
+        <v>2.9</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="3">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3">
+        <v>6</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F8" s="3">
+        <v>100</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="3">
+        <v>5</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="3">
+        <v>3</v>
+      </c>
+      <c r="C9" s="3">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="F9" s="3">
+        <v>80</v>
+      </c>
+      <c r="G9" s="3">
+        <v>6</v>
+      </c>
+      <c r="H9" s="3">
+        <v>20</v>
+      </c>
+      <c r="I9" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="3">
+        <v>5</v>
+      </c>
+      <c r="C10" s="3">
+        <v>6</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="3">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3">
+        <v>50</v>
+      </c>
+      <c r="G10" s="3">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H10" s="3">
+        <v>50</v>
+      </c>
+      <c r="I10" s="3">
+        <v>4</v>
+      </c>
+      <c r="J10" s="3">
+        <v>2</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="3">
+        <v>4</v>
+      </c>
+      <c r="C11" s="3">
+        <v>6</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E2">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="F2">
-        <v>90</v>
-      </c>
-      <c r="G2">
+      <c r="E11" s="3">
+        <v>4</v>
+      </c>
+      <c r="F11" s="3">
+        <v>50</v>
+      </c>
+      <c r="G11" s="3">
+        <v>8</v>
+      </c>
+      <c r="H11" s="3">
+        <v>50</v>
+      </c>
+      <c r="I11" s="3">
+        <v>4</v>
+      </c>
+      <c r="J11" s="3">
+        <v>2</v>
+      </c>
+      <c r="K11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="3">
+        <v>5</v>
+      </c>
+      <c r="C12" s="3">
+        <v>6</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="3">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3">
+        <v>50</v>
+      </c>
+      <c r="G12" s="3">
+        <v>8</v>
+      </c>
+      <c r="H12" s="3">
+        <v>50</v>
+      </c>
+      <c r="I12" s="3">
+        <v>4</v>
+      </c>
+      <c r="J12" s="3">
+        <v>2</v>
+      </c>
+      <c r="K12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="3">
+        <v>2</v>
+      </c>
+      <c r="C13" s="3">
+        <v>6</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="3">
+        <v>4</v>
+      </c>
+      <c r="F13" s="3">
+        <v>50</v>
+      </c>
+      <c r="G13" s="3">
+        <v>8</v>
+      </c>
+      <c r="H13" s="3">
+        <v>50</v>
+      </c>
+      <c r="I13" s="3">
+        <v>4</v>
+      </c>
+      <c r="J13" s="3">
+        <v>2</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="3">
+        <v>3</v>
+      </c>
+      <c r="C14" s="3">
+        <v>6</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F14" s="3">
+        <v>100</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="3">
+        <v>5</v>
+      </c>
+      <c r="C15" s="3">
+        <v>6</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="3">
+        <v>8</v>
+      </c>
+      <c r="F15" s="3">
+        <v>80</v>
+      </c>
+      <c r="G15" s="3">
+        <v>15</v>
+      </c>
+      <c r="H15" s="3">
+        <v>20</v>
+      </c>
+      <c r="I15" s="3">
+        <v>7</v>
+      </c>
+      <c r="J15" s="3">
+        <v>1</v>
+      </c>
+      <c r="K15" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="3">
+        <v>4</v>
+      </c>
+      <c r="C16" s="3">
+        <v>6</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="3">
         <v>9</v>
       </c>
-      <c r="H2">
-        <v>10</v>
-      </c>
-      <c r="I2">
-        <v>9.1</v>
-      </c>
-      <c r="J2">
+      <c r="F16" s="3">
+        <v>50</v>
+      </c>
+      <c r="G16" s="3">
+        <v>16</v>
+      </c>
+      <c r="H16" s="3">
+        <v>50</v>
+      </c>
+      <c r="I16" s="3">
+        <v>3</v>
+      </c>
+      <c r="J16" s="3">
+        <v>1</v>
+      </c>
+      <c r="K16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="3">
         <v>2</v>
       </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3">
+      <c r="C17" s="3">
+        <v>6</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="3">
         <v>5</v>
       </c>
-      <c r="C3">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3">
-        <v>3.7</v>
-      </c>
-      <c r="F3">
+      <c r="F17" s="3">
         <v>100</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3">
-        <v>3.2</v>
-      </c>
-      <c r="J3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4">
+      <c r="G17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="3">
         <v>5</v>
       </c>
-      <c r="C4">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="F4">
-        <v>10</v>
-      </c>
-      <c r="G4">
-        <v>6.6</v>
-      </c>
-      <c r="H4">
-        <v>90</v>
-      </c>
-      <c r="I4">
-        <v>3.6</v>
-      </c>
-      <c r="J4">
-        <v>0.5</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="F5">
-        <v>50</v>
-      </c>
-      <c r="G5">
-        <v>5.9</v>
-      </c>
-      <c r="H5">
-        <v>50</v>
-      </c>
-      <c r="I5">
-        <v>3.8</v>
-      </c>
-      <c r="J5">
-        <v>0.5</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6">
-        <v>3.5</v>
-      </c>
-      <c r="F6">
-        <v>100</v>
-      </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6">
-        <v>3.5</v>
-      </c>
-      <c r="J6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="F7">
-        <v>90</v>
-      </c>
-      <c r="G7">
-        <v>10</v>
-      </c>
-      <c r="H7">
-        <v>10</v>
-      </c>
-      <c r="I7">
-        <v>4</v>
-      </c>
-      <c r="J7">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8">
-        <v>4.2</v>
-      </c>
-      <c r="F8">
-        <v>100</v>
-      </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8">
-        <v>3.2</v>
-      </c>
-      <c r="J8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="C9">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9">
-        <v>4.5</v>
-      </c>
-      <c r="F9">
-        <v>50</v>
-      </c>
-      <c r="G9">
-        <v>7.4</v>
-      </c>
-      <c r="H9">
-        <v>50</v>
-      </c>
-      <c r="I9">
-        <v>2.9</v>
-      </c>
-      <c r="J9">
-        <v>1.4</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="C10">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="F10">
-        <v>100</v>
-      </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10">
-        <v>3.5</v>
-      </c>
-      <c r="J10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11">
-        <v>5</v>
-      </c>
-      <c r="C11">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11">
-        <v>4</v>
-      </c>
-      <c r="F11">
-        <v>100</v>
-      </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11">
-        <v>3.5</v>
-      </c>
-      <c r="J11" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12">
-        <v>5</v>
-      </c>
-      <c r="C12">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12">
-        <v>4.7</v>
-      </c>
-      <c r="F12">
-        <v>90</v>
-      </c>
-      <c r="G12">
-        <v>6</v>
-      </c>
-      <c r="H12">
-        <v>10</v>
-      </c>
-      <c r="I12">
-        <v>3.5</v>
-      </c>
-      <c r="J12">
-        <v>1.8</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
+      <c r="J17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" s="3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/main.xlsx
+++ b/main.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evgen\OneDrive\Рабочий стол\Тесты стратегий\черновики\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="30">
   <si>
     <t>Symbol</t>
   </si>
@@ -119,7 +114,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -464,7 +459,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -475,21 +470,21 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" customWidth="1"/>
+    <col min="10" max="10" width="11.109375" customWidth="1"/>
+    <col min="11" max="11" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -541,22 +536,22 @@
         <v>13</v>
       </c>
       <c r="E2" s="3">
-        <v>5.0999999999999996</v>
+        <v>0.1</v>
       </c>
       <c r="F2" s="3">
         <v>90</v>
       </c>
       <c r="G2" s="3">
-        <v>9</v>
+        <v>0.25</v>
       </c>
       <c r="H2" s="3">
         <v>10</v>
       </c>
       <c r="I2" s="3">
-        <v>9.1</v>
+        <v>1</v>
       </c>
       <c r="J2" s="3">
-        <v>2</v>
+        <v>0.05</v>
       </c>
       <c r="K2" s="3">
         <v>2</v>
@@ -576,22 +571,22 @@
         <v>13</v>
       </c>
       <c r="E3" s="3">
-        <v>4.5999999999999996</v>
+        <v>0.1</v>
       </c>
       <c r="F3" s="3">
         <v>50</v>
       </c>
       <c r="G3" s="3">
-        <v>8.5</v>
+        <v>0.5</v>
       </c>
       <c r="H3" s="3">
         <v>50</v>
       </c>
       <c r="I3" s="3">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="J3" s="3">
-        <v>2.2000000000000002</v>
+        <v>0.05</v>
       </c>
       <c r="K3" s="3">
         <v>1</v>
@@ -891,22 +886,22 @@
         <v>13</v>
       </c>
       <c r="E12" s="3">
-        <v>4</v>
+        <v>0.2</v>
       </c>
       <c r="F12" s="3">
         <v>50</v>
       </c>
       <c r="G12" s="3">
-        <v>8</v>
+        <v>0.8</v>
       </c>
       <c r="H12" s="3">
         <v>50</v>
       </c>
       <c r="I12" s="3">
-        <v>4</v>
+        <v>0.9</v>
       </c>
       <c r="J12" s="3">
-        <v>2</v>
+        <v>0.05</v>
       </c>
       <c r="K12" s="3">
         <v>1</v>
@@ -932,7 +927,7 @@
         <v>50</v>
       </c>
       <c r="G13" s="3">
-        <v>8</v>
+        <v>0.4</v>
       </c>
       <c r="H13" s="3">
         <v>50</v>
@@ -966,8 +961,8 @@
       <c r="F14" s="3">
         <v>100</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>12</v>
+      <c r="G14" s="3">
+        <v>0.4</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>12</v>
@@ -1002,7 +997,7 @@
         <v>80</v>
       </c>
       <c r="G15" s="3">
-        <v>15</v>
+        <v>0.4</v>
       </c>
       <c r="H15" s="3">
         <v>20</v>
@@ -1037,7 +1032,7 @@
         <v>50</v>
       </c>
       <c r="G16" s="3">
-        <v>16</v>
+        <v>0.4</v>
       </c>
       <c r="H16" s="3">
         <v>50</v>
@@ -1071,8 +1066,8 @@
       <c r="F17" s="3">
         <v>100</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>12</v>
+      <c r="G17" s="3">
+        <v>0.4</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>12</v>
